--- a/va_facility_data_2025-02-20/Escondido VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Escondido%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Escondido VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Escondido%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R94f05c9605f94a40b94cd3bfaf2c81c7"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R7925f5a2b1cf4f45be0690b1c8155c48"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R2401de3bc4f84178af4b6e51ccefa10f"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R6822f287ad6c457eb229c0ac78e51e3d"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rd473719cc08c47de9f4046176b11ac08"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R1ab1d0d9ecf0403e865753591001692c"/>
   </x:sheets>
 </x:workbook>
 </file>
